--- a/StructureDefinition-ext-R5-ResearchStudy.progressStatus.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.progressStatus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ResearchStudy.progressStatus` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ResearchStudy.progressStatus` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+Element `ResearchStudy.progressStatus` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ResearchStudy</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.progressStatus.state` is part of an existing definition because parent element `ResearchStudy.progressStatus` requires a cross-version extension.
-Element `ResearchStudy.progressStatus.state` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+Element `ResearchStudy.progressStatus.state` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:state.id</t>
@@ -431,7 +431,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.progressStatus.actual` is part of an existing definition because parent element `ResearchStudy.progressStatus` requires a cross-version extension.
-Element `ResearchStudy.progressStatus.actual` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+Element `ResearchStudy.progressStatus.actual` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:actual.id</t>
@@ -463,7 +463,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.progressStatus.period` is part of an existing definition because parent element `ResearchStudy.progressStatus` requires a cross-version extension.
-Element `ResearchStudy.progressStatus.period` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+Element `ResearchStudy.progressStatus.period` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -829,7 +829,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="137.9140625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="142.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-ResearchStudy.progressStatus.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.progressStatus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="154">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ResearchStudy.progressStatus` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ResearchStudy.progressStatus` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.progressStatus` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.progressStatus.state` is part of an existing definition because parent element `ResearchStudy.progressStatus` requires a cross-version extension.
-Element `ResearchStudy.progressStatus.state` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.progressStatus.state` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:state.id</t>
@@ -386,6 +386,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus.state</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -431,7 +434,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.progressStatus.actual` is part of an existing definition because parent element `ResearchStudy.progressStatus` requires a cross-version extension.
-Element `ResearchStudy.progressStatus.actual` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.progressStatus.actual` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:actual.id</t>
@@ -441,6 +444,9 @@
   </si>
   <si>
     <t>Extension.extension:actual.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus.actual</t>
   </si>
   <si>
     <t>Extension.extension:actual.value[x]</t>
@@ -463,7 +469,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.progressStatus.period` is part of an existing definition because parent element `ResearchStudy.progressStatus` requires a cross-version extension.
-Element `ResearchStudy.progressStatus.period` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.progressStatus.period` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -473,6 +479,9 @@
   </si>
   <si>
     <t>Extension.extension:period.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus.period</t>
   </si>
   <si>
     <t>Extension.extension:period.value[x]</t>
@@ -829,7 +838,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="142.4296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="137.9140625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1635,7 +1644,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1677,7 +1686,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1692,15 +1701,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1723,7 +1732,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1756,13 +1765,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1780,7 +1789,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1792,21 +1801,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1831,14 +1840,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1907,7 +1916,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2010,7 +2019,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2115,7 +2124,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2158,7 +2167,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2200,7 +2209,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2215,15 +2224,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2246,13 +2255,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2303,7 +2312,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2315,21 +2324,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2354,14 +2363,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2430,7 +2439,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2533,7 +2542,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2638,7 +2647,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2681,7 +2690,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2723,7 +2732,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2738,15 +2747,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2769,13 +2778,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2826,7 +2835,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2838,18 +2847,18 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2931,7 +2940,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>86</v>
@@ -2946,15 +2955,15 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2977,13 +2986,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3034,7 +3043,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3046,10 +3055,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-ResearchStudy.progressStatus.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.progressStatus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="151">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -403,15 +403,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>defn.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-research-study-status-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -849,7 +840,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.78515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1765,31 +1756,31 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1801,7 +1792,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -1809,13 +1800,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1840,14 +1831,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1916,7 +1907,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2019,7 +2010,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2124,7 +2115,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2167,7 +2158,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2229,7 +2220,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2255,13 +2246,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2312,7 +2303,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2324,7 +2315,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2332,13 +2323,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2363,14 +2354,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2439,7 +2430,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2542,7 +2533,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2647,7 +2638,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2690,7 +2681,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2752,7 +2743,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -2778,13 +2769,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2835,7 +2826,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2847,7 +2838,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>120</v>
@@ -2960,10 +2951,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2986,13 +2977,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3043,7 +3034,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3055,7 +3046,7 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>120</v>

--- a/StructureDefinition-ext-R5-ResearchStudy.progressStatus.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.progressStatus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>Label for status or state (e.g. recruitment status).</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.progressStatus.state` is part of an existing definition because parent element `ResearchStudy.progressStatus` requires a cross-version extension.
-Element `ResearchStudy.progressStatus.state` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.progressStatus.state` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:state.id</t>
@@ -386,9 +385,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus.state</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -405,6 +401,15 @@
 </t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>defn.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-status|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -424,8 +429,7 @@
     <t>An indication of whether or not the date is a known date when the state changed or will change. A value of true indicates a known date. A value of false indicates an estimated date.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.progressStatus.actual` is part of an existing definition because parent element `ResearchStudy.progressStatus` requires a cross-version extension.
-Element `ResearchStudy.progressStatus.actual` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.progressStatus.actual` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:actual.id</t>
@@ -435,9 +439,6 @@
   </si>
   <si>
     <t>Extension.extension:actual.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus.actual</t>
   </si>
   <si>
     <t>Extension.extension:actual.value[x]</t>
@@ -459,8 +460,7 @@
     <t>Date range.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.progressStatus.period` is part of an existing definition because parent element `ResearchStudy.progressStatus` requires a cross-version extension.
-Element `ResearchStudy.progressStatus.period` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.progressStatus.period` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -470,9 +470,6 @@
   </si>
   <si>
     <t>Extension.extension:period.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus.period</t>
   </si>
   <si>
     <t>Extension.extension:period.value[x]</t>
@@ -829,7 +826,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="137.9140625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="136.4453125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -840,7 +837,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.45703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1635,72 +1632,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1723,7 +1720,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1756,13 +1753,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1780,7 +1777,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1792,21 +1789,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1831,14 +1828,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1907,7 +1904,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2010,7 +2007,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2115,7 +2112,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2158,7 +2155,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2200,30 +2197,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2246,13 +2243,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2303,7 +2300,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2315,21 +2312,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2354,14 +2351,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2430,7 +2427,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2533,7 +2530,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2638,7 +2635,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2681,7 +2678,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2723,22 +2720,22 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
@@ -2746,7 +2743,7 @@
         <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2772,10 +2769,10 @@
         <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2826,7 +2823,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2838,18 +2835,18 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2931,30 +2928,30 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3034,7 +3031,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3046,10 +3043,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
